--- a/data/sample_import_template-glm-45-air.xlsx
+++ b/data/sample_import_template-glm-45-air.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AI\Leaderboard-LLM-v2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9870E848-C42B-41ED-8E21-B43DB8C2349B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C6BF9E-99D1-4B9F-94EC-CBC4B45F8E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3456" yWindow="3456" windowWidth="25968" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,12 +64,6 @@
     <t>language_tasks_002</t>
   </si>
   <si>
-    <t>English pangram without x,y,z</t>
-  </si>
-  <si>
-    <t>Write an English pangram that uses every letter of the alphabet exactly once except: x,y,z</t>
-  </si>
-  <si>
     <t>language_tasks_003</t>
   </si>
   <si>
@@ -236,6 +230,12 @@
   </si>
   <si>
     <t>llm-003</t>
+  </si>
+  <si>
+    <t>Write a poem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a poem that consists of 6 lines and is about sports. The number of syllables in the lines increases by 1 from line to line. The first line has 1 syllable. </t>
   </si>
 </sst>
 </file>
@@ -626,7 +626,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -678,16 +678,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F2">
         <v>7</v>
@@ -701,19 +701,22 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>484</v>
       </c>
       <c r="I3" t="s">
         <v>12</v>
@@ -721,19 +724,19 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F4">
         <v>7</v>
@@ -744,19 +747,19 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F5">
         <v>8</v>
@@ -767,19 +770,19 @@
     </row>
     <row r="6" spans="1:10" ht="22.8" customHeight="1">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F6">
         <v>8</v>
@@ -790,19 +793,19 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -813,19 +816,19 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F8">
         <v>10</v>
@@ -836,19 +839,19 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -859,19 +862,19 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -882,19 +885,19 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -905,19 +908,19 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F12">
         <v>9</v>
@@ -928,19 +931,19 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F13">
         <v>10</v>
@@ -951,19 +954,19 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F14">
         <v>7</v>
@@ -974,19 +977,19 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F15">
         <v>9</v>
@@ -997,19 +1000,19 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
         <v>31</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
         <v>32</v>
       </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" t="s">
-        <v>34</v>
-      </c>
       <c r="E16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F16">
         <v>10</v>
@@ -1020,19 +1023,19 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F17">
         <v>5</v>
@@ -1043,19 +1046,19 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F18">
         <v>9</v>
@@ -1066,19 +1069,19 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
         <v>35</v>
       </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" t="s">
-        <v>37</v>
-      </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F19">
         <v>0</v>

--- a/data/sample_import_template-glm-45-air.xlsx
+++ b/data/sample_import_template-glm-45-air.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AI\Leaderboard-LLM-v2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C6BF9E-99D1-4B9F-94EC-CBC4B45F8E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FBEEA0-9727-4DAF-BE93-CB46F3A85AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3456" yWindow="3456" windowWidth="25968" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -626,7 +626,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -900,7 +900,7 @@
         <v>68</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I11" t="s">
         <v>12</v>
